--- a/medicine/Sexualité et sexologie/Clèves_(roman)/Clèves_(roman).xlsx
+++ b/medicine/Sexualité et sexologie/Clèves_(roman)/Clèves_(roman).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cl%C3%A8ves_(roman)</t>
+          <t>Clèves_(roman)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clèves est un roman de Marie Darrieussecq paru en août 2011 chez P.O.L[1],[2],[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clèves est un roman de Marie Darrieussecq paru en août 2011 chez P.O.L.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cl%C3%A8ves_(roman)</t>
+          <t>Clèves_(roman)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Éditions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Clèves, Paris, P.O.L, 2011, 352 p.  (ISBN 9782818013977)</t>
         </is>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cl%C3%A8ves_(roman)</t>
+          <t>Clèves_(roman)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,7 +555,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman a été adapté pour Arte par Rodolphe Tissot en 2021 sous le titre Clèves.
 </t>
